--- a/repository/report/2018-2/basics-filter-2018-2.xlsx
+++ b/repository/report/2018-2/basics-filter-2018-2.xlsx
@@ -55,7 +55,7 @@
     <t>每股收益</t>
   </si>
   <si>
-    <t>每股净资</t>
+    <t>每股净资产</t>
   </si>
   <si>
     <t>市净率</t>
